--- a/Test Tesi/Operazioni/Somma/11col.xlsx
+++ b/Test Tesi/Operazioni/Somma/11col.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">I</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Diff Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMMA</t>
   </si>
   <si>
     <t xml:space="preserve">OGNI RIGA DEL DATASET CONSTA DI 11 COLONNE!!!</t>
@@ -207,7 +210,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,6 +221,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -512,7 +519,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,6 +551,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -563,14 +574,14 @@
         <f aca="false">D2</f>
         <v>48103424</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,14 +602,14 @@
         <f aca="false">D3+E2</f>
         <v>84803584</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,17 +652,17 @@
         <f aca="false">D5+E4</f>
         <v>126746624</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -671,17 +682,17 @@
         <f aca="false">D6+E5</f>
         <v>131334144</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -701,17 +712,17 @@
         <f aca="false">D7+E6</f>
         <v>67502080</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -731,17 +742,17 @@
         <f aca="false">D8+E7</f>
         <v>160038912</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -784,7 +795,7 @@
         <v>136577024</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>11</v>
@@ -812,7 +823,7 @@
         <v>205008896</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>700</v>
@@ -844,27 +855,27 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7" t="n">
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <f aca="false">AVERAGE(D2:D12)</f>
         <v>18005271.2727273</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" s="9" t="n">
         <f aca="false">I13/I10</f>
         <v>1636842.84297521</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="n">
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10" t="n">
         <f aca="false">STDEV(D2:D12)</f>
         <v>44204672.2351641</v>
       </c>
@@ -885,45 +896,46 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="6"/>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
+      <c r="H18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="10" t="n">
+      <c r="H19" s="11" t="n">
         <v>0.403310185185185</v>
       </c>
-      <c r="I19" s="10" t="n">
+      <c r="I19" s="11" t="n">
         <v>0.404189814814815</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="12" t="n">
         <f aca="false">I19-H19</f>
         <v>0.00087962962962963</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="n">
-        <f aca="false">K19*86400/(I11)</f>
-        <v>0.108571428571429</v>
+        <f aca="false">K19*86400/(I11*I10)</f>
+        <v>0.00987012987012988</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="6"/>
-      <c r="K20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="I5:N5"/>
